--- a/public/template/21. Form Renja DPA DPPA.xlsx
+++ b/public/template/21. Form Renja DPA DPPA.xlsx
@@ -1,44 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alwi_mansyur/Documents/htdocs/sesendokneo/public/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA28C59-312C-B64B-B5E3-A2FEA6038DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="renja dpa" sheetId="1" r:id="rId4"/>
+    <sheet name="renja dpa" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dpupr Pasangkayu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dpupr Pasangkayu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Yang bisa di input jenis kelompok hanya
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. paket
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. kelompok
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t xml:space="preserve">dpupr Pasangkayu:
-Yang bisa di input jenis kelompok hanya
-1. paket
-2. kelompok
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>dpupr Pasangkayu:
 Yang bisa di input jenis komponen hanya 4 yaitu
@@ -49,13 +97,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>dpupr Pasangkayu:
 jika lebih dari 1 satuan pisahkan dengan titik koma (untuk satuan jangan gunakan spasi)  contoh : 
@@ -63,13 +112,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>dpupr Pasangkayu:
 jika lebih dari 1 satuan pisahkan dengan titik koma   contoh : 
@@ -77,13 +127,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>dpupr Pasangkayu:
 jika lebih dari 1 kode sumber dana pisahkan dengan titk koma   contoh : 
@@ -96,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>KODE AKUN</t>
   </si>
@@ -137,75 +188,133 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>5.2.02.02.01.0001</t>
-  </si>
-  <si>
-    <t>Pengadaan Kendaraan Dinas</t>
-  </si>
-  <si>
     <t>kelompok</t>
   </si>
   <si>
     <t>sbu</t>
   </si>
   <si>
-    <t>Pengadaan Kendaraan Dinas Pejabat</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>1.2.1.01.02</t>
   </si>
   <si>
-    <t>5.2.01.01.01.0004</t>
-  </si>
-  <si>
-    <t>Pembebsan Lahan</t>
-  </si>
-  <si>
-    <t>Pengadaan Tanah Kantor Dinas</t>
-  </si>
-  <si>
-    <t>Pembebasan Bangunan</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>5.1.01.03.07.0001</t>
-  </si>
-  <si>
-    <t>Pejabat Pelaksana Teknis Kegiatan (PPTK)</t>
-  </si>
-  <si>
     <t>Honorarium</t>
   </si>
   <si>
-    <t>orang/bulan</t>
-  </si>
-  <si>
-    <t>Orang;bulan</t>
-  </si>
-  <si>
-    <t>2;12</t>
+    <t>5.1.02.01.01.0024</t>
+  </si>
+  <si>
+    <t>Alat Tulis Kantor (ATK)</t>
+  </si>
+  <si>
+    <t>Alat Tulis Kantor</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>BALLPOINT</t>
+  </si>
+  <si>
+    <t>Buah</t>
+  </si>
+  <si>
+    <t>BINDER KLIPS</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>Kertas HVS</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>MAP ORDNER / BINDER FILE</t>
+  </si>
+  <si>
+    <t>TINTA PRINTER ORIGINAL</t>
+  </si>
+  <si>
+    <t>5.1.02.01.01.0025</t>
+  </si>
+  <si>
+    <t>Jilid dan Penggandaan</t>
+  </si>
+  <si>
+    <t>FOTO COPY HITAM PUTIH</t>
+  </si>
+  <si>
+    <t>Lembar</t>
+  </si>
+  <si>
+    <t>5.1.02.01.01.0026</t>
+  </si>
+  <si>
+    <t>Jilid</t>
+  </si>
+  <si>
+    <t>Jilid Spiral Biasa</t>
+  </si>
+  <si>
+    <t>dokumen</t>
+  </si>
+  <si>
+    <t>lembar</t>
+  </si>
+  <si>
+    <t>5.1.02.01.01.0052</t>
+  </si>
+  <si>
+    <t>Penyusunan LK Akhir Tahun</t>
+  </si>
+  <si>
+    <t>Nasi Kotak</t>
+  </si>
+  <si>
+    <t>Kotak</t>
+  </si>
+  <si>
+    <t>Makan Minum Kegiatan</t>
+  </si>
+  <si>
+    <t>kotak</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>40;2</t>
+  </si>
+  <si>
+    <t>orang;Kotak</t>
+  </si>
+  <si>
+    <t>5.1.02.02.01.0004</t>
+  </si>
+  <si>
+    <t>PENYUSUNAN DOKUMEN PERENCANAAN DAERAH</t>
+  </si>
+  <si>
+    <t>orang/kegiatan</t>
+  </si>
+  <si>
+    <t>orang</t>
+  </si>
+  <si>
+    <t>200;2</t>
+  </si>
+  <si>
+    <t>lembar;bulan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -215,24 +324,28 @@
       <name val="Avenir Next Regular"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -261,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -271,44 +384,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
@@ -332,16 +408,14 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
@@ -352,9 +426,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="12"/>
       </right>
@@ -370,9 +442,20 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="12"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
@@ -382,118 +465,780 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Demi Bold"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="11"/>
+        </left>
+        <right style="thin">
+          <color indexed="11"/>
+        </right>
+        <top style="thin">
+          <color indexed="11"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Avenir Next Demi Bold"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff227aae"/>
-      <rgbColor rgb="ffb3afaa"/>
-      <rgbColor rgb="ffcccac6"/>
-      <rgbColor rgb="ffe4e2de"/>
-      <rgbColor rgb="fff0ebe2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FF227AAE"/>
+      <rgbColor rgb="FFB3AFAA"/>
+      <rgbColor rgb="FFCCCAC6"/>
+      <rgbColor rgb="FFE4E2DE"/>
+      <rgbColor rgb="FFF0EBE2"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF4286CB-ACC7-614B-8B06-0AF19DB2BB11}" name="Tabel1" displayName="Tabel1" ref="A1:M15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:M15" xr:uid="{DF4286CB-ACC7-614B-8B06-0AF19DB2BB11}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6C583401-6D13-1F42-B512-4ACD422EBDBB}" name="KODE AKUN" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7AA21F19-71EE-BF4F-BE30-F8138D8FE79C}" name="URAIAN" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{56348671-2C14-544F-AB5D-4AC701144D08}" name="JENIS KELOMPOK" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3AB26957-0658-F941-AB61-061E6BB2B6CC}" name="KELOMPOK" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C02B5FA7-776C-4E42-88E5-BADA3B685CBE}" name="JENIS KOMPONEN" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C1FB4147-277E-1C45-9C34-4154DBB6958D}" name="NAMA KOMPONEN" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5169994A-44FB-C24C-BB38-C3712D1184DD}" name="HARGA SAT. KOMPONEN"/>
+    <tableColumn id="8" xr3:uid="{D88BA28A-EDA2-ED45-85DF-2EBB45DD083D}" name="SATUAN KOMPONEN" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{2C810832-07C2-444F-BD2C-D4CBBC47FBBD}" name="SATUAN" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B6684616-5881-704E-A5ED-3C48134B60E2}" name="VOLUME" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7FB0CD06-0D2B-FC4A-A6DF-67F340513562}" name="JUMLAH" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{35028524-07C3-5A4D-9C3D-5AE9D6718FFB}" name="KODE SUMBER DANA" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{585AB556-E99F-894A-8E85-59E7AEEB7571}" name="KETERANGAN" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -692,7 +1437,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -710,7 +1455,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +1484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +1509,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +1534,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +1559,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +1584,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +1609,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +1634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1684,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,9 +1697,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -971,7 +1722,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -989,7 +1740,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1765,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +1790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1965,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,9 +1978,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1243,7 +2000,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1261,7 +2018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +2047,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +2072,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +2097,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +2122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +2147,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +2172,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +2197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +2222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +2247,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,232 +2260,552 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.2734" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4531" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.8594" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.1875" style="1" customWidth="1"/>
-    <col min="7" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="36.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="4">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8">
+        <v>5600</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9">
+        <v>27800</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>72200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9">
+        <v>46700</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8">
+        <v>175400</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6">
+        <v>300</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9">
+        <v>11100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8">
+        <v>35000</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7">
-        <v>878913000</v>
-      </c>
-      <c r="H2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="M2" s="9"/>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="8">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="13"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="10">
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2500000</v>
-      </c>
-      <c r="H3" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11">
-        <v>150</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="M3" s="13"/>
+      <c r="M12" s="12"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="H4" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7">
-        <v>200</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="M4" s="9"/>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="13"/>
     </row>
-    <row r="5" ht="22.6" customHeight="1">
-      <c r="A5" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1210000</v>
-      </c>
-      <c r="H5" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="M5" s="18"/>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>